--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-4郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-4郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33C87DB-C7AD-4A2A-AB43-3B395BDE568B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2627C76-81A4-47B1-AB76-A24C82F3A709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>智造组工程师工作月度情况</t>
   </si>
@@ -70,9 +70,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>模块新增页面，js/样式文件，</t>
-  </si>
-  <si>
     <t>工序产能复制工段功能完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -81,10 +78,50 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>工序产能/三防、打底壳、锁面罩改为手输数据， 输入功能优化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序产能首页计算功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认完成</t>
+  </si>
+  <si>
+    <t>第一次的版本，不采用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次大改，不采用</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>二楼所有条码采用提前录入方式，新增提前录入规则页，有打印功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块后焊段完成（有语音功能，语音功能需要使用电脑tts引擎）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库功能区分挪用出库权限限制，优化逻辑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序产能新增加单机设备信息录入功能</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成待确认</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡膏开始导入，锡膏流程优化，锡膏部分操作根据实际情况修改，验证规则改变</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码查询首页和产值看板详细页，重复的模组号增加提示显示，录入页增加重复验证</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +186,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -197,7 +240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -230,6 +273,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -626,8 +675,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -727,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="6">
         <v>43924</v>
@@ -771,18 +820,24 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6">
         <v>43924</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6">
+        <v>43930</v>
+      </c>
       <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43930</v>
+      </c>
       <c r="G7" s="4"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -811,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="6">
         <v>43924</v>
@@ -833,42 +888,66 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="C10" s="12">
+        <v>43938</v>
+      </c>
+      <c r="D10" s="12">
+        <v>43948</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="F10" s="12">
+        <v>43948</v>
+      </c>
       <c r="G10" s="4"/>
-      <c r="H10" s="7"/>
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43934</v>
+      </c>
+      <c r="D11" s="12">
+        <v>43936</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="12">
+        <v>43936</v>
+      </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="45.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43930</v>
+      </c>
+      <c r="D12" s="12">
+        <v>43941</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F12" s="12">
+        <v>43941</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
     </row>
@@ -876,13 +955,21 @@
       <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12">
+        <v>43941</v>
+      </c>
+      <c r="D13" s="12">
+        <v>43942</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F13" s="12">
+        <v>43942</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="8"/>
     </row>
@@ -890,13 +977,21 @@
       <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="12">
+        <v>43942</v>
+      </c>
+      <c r="D14" s="12">
+        <v>43942</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F14" s="12">
+        <v>43942</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
@@ -904,26 +999,42 @@
       <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="B15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12">
+        <v>43944</v>
+      </c>
+      <c r="D15" s="12">
+        <v>43944</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="F15" s="12">
+        <v>43944</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:8" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12">
+        <v>43936</v>
+      </c>
+      <c r="D16" s="12">
+        <v>43944</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="12">
+        <v>43944</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
     </row>

--- a/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-4郑振彪).xlsx
+++ b/细节优化-190520不再更新/工作清单/智造组各工程师月度工作情况(2020-4郑振彪).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2627C76-81A4-47B1-AB76-A24C82F3A709}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D24EE1-1F8E-4E77-BE1E-551F7607E78A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>智造组工程师工作月度情况</t>
   </si>
@@ -49,9 +49,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>未开始</t>
-  </si>
-  <si>
     <t>工序产能模组工段改名分三段输入，分别为出货方式/模组类别/箱体尺寸</t>
   </si>
   <si>
@@ -122,6 +119,25 @@
   </si>
   <si>
     <t>条码查询首页和产值看板详细页，重复的模组号增加提示显示，录入页增加重复验证</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>工序产能首页内嵌详细表重做</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码查看页重做</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备使用率展示信息</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>模块首页展示信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,19 +282,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,8 +688,8 @@
   </sheetPr>
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -690,16 +703,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -732,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="6">
         <v>43922</v>
@@ -741,7 +754,7 @@
         <v>43928</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="6">
         <v>43928</v>
@@ -754,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="6">
         <v>43922</v>
@@ -763,7 +776,7 @@
         <v>43924</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="6">
         <v>43924</v>
@@ -776,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6">
         <v>43924</v>
@@ -785,7 +798,7 @@
         <v>43928</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6">
         <v>43928</v>
@@ -798,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>43928</v>
@@ -807,7 +820,7 @@
         <v>43928</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6">
         <v>43928</v>
@@ -820,7 +833,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="6">
         <v>43924</v>
@@ -829,14 +842,14 @@
         <v>43930</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6">
         <v>43930</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.2">
@@ -844,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6">
         <v>43929</v>
@@ -853,7 +866,7 @@
         <v>43930</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="6">
         <v>43930</v>
@@ -866,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="6">
         <v>43924</v>
@@ -875,7 +888,7 @@
         <v>43930</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="6">
         <v>43930</v>
@@ -888,23 +901,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="10">
+        <v>43938</v>
+      </c>
+      <c r="D10" s="10">
+        <v>43948</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="12">
-        <v>43938</v>
-      </c>
-      <c r="D10" s="12">
-        <v>43948</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="F10" s="10">
         <v>43948</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -912,18 +925,18 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="12">
+        <v>21</v>
+      </c>
+      <c r="C11" s="10">
         <v>43934</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>43936</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="12">
+        <v>12</v>
+      </c>
+      <c r="F11" s="10">
         <v>43936</v>
       </c>
       <c r="G11" s="4"/>
@@ -934,18 +947,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="12">
+        <v>22</v>
+      </c>
+      <c r="C12" s="10">
         <v>43930</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="10">
         <v>43941</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="12">
+        <v>12</v>
+      </c>
+      <c r="F12" s="10">
         <v>43941</v>
       </c>
       <c r="G12" s="4"/>
@@ -956,18 +969,18 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="12">
+        <v>26</v>
+      </c>
+      <c r="C13" s="10">
         <v>43941</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="10">
         <v>43942</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="12">
+        <v>12</v>
+      </c>
+      <c r="F13" s="10">
         <v>43942</v>
       </c>
       <c r="G13" s="4"/>
@@ -978,18 +991,18 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="12">
+        <v>23</v>
+      </c>
+      <c r="C14" s="10">
         <v>43942</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="10">
         <v>43942</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="12">
+        <v>12</v>
+      </c>
+      <c r="F14" s="10">
         <v>43942</v>
       </c>
       <c r="G14" s="4"/>
@@ -1000,18 +1013,18 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10">
         <v>43944</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="10">
         <v>43944</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="12">
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
         <v>43944</v>
       </c>
       <c r="H15" s="7"/>
@@ -1021,76 +1034,108 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="10">
+        <v>43936</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43944</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="12">
-        <v>43936</v>
-      </c>
-      <c r="D16" s="12">
-        <v>43944</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="F16" s="10">
         <v>43944</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="10">
+        <v>43944</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43948</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F17" s="10">
+        <v>43948</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="10">
+        <v>43948</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43950</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="10">
+        <v>43950</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43950</v>
+      </c>
+      <c r="D19" s="10">
+        <v>43951</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="F19" s="10">
+        <v>43951</v>
+      </c>
       <c r="G19" s="4"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="56.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="10">
+        <v>43944</v>
+      </c>
+      <c r="D20" s="10">
+        <v>43948</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="F20" s="10">
+        <v>43948</v>
+      </c>
       <c r="G20" s="4"/>
       <c r="H20" s="7"/>
     </row>
@@ -1145,6 +1190,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.43" right="0.28999999999999998" top="0.47" bottom="0.4" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>